--- a/src/SmartKG.DataProcessor/Resources/_DataPreProcess/excel/COVID19/smartKG_virus_en.xlsx
+++ b/src/SmartKG.DataProcessor/Resources/_DataPreProcess/excel/COVID19/smartKG_virus_en.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\source\repos\SmartKG\src\SmartKG.DataProcessor\Resources\_DataPreProcess\excel\COVID19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3FD789-4D38-4400-B405-C8EEFE2D13DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28280" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顶点" sheetId="1" r:id="rId1"/>
     <sheet name="边" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="243">
   <si>
     <t>entity id</t>
   </si>
@@ -749,14 +755,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,159 +764,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,194 +778,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1124,251 +787,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1386,61 +807,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1698,79 +1075,78 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF20"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.5982142857143" customWidth="1"/>
-    <col min="3" max="3" width="29.4642857142857" customWidth="1"/>
-    <col min="4" max="4" width="26.0357142857143" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5357142857143" customWidth="1"/>
-    <col min="7" max="7" width="37.5982142857143" customWidth="1"/>
-    <col min="8" max="8" width="15.3303571428571" customWidth="1"/>
-    <col min="9" max="9" width="14.3303571428571" customWidth="1"/>
-    <col min="10" max="10" width="22.3303571428571" customWidth="1"/>
-    <col min="11" max="11" width="16.3303571428571" customWidth="1"/>
-    <col min="12" max="12" width="24.5357142857143" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="3" max="3" width="29.46484375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="21.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" customWidth="1"/>
+    <col min="7" max="7" width="37.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.53125" customWidth="1"/>
     <col min="13" max="13" width="33" customWidth="1"/>
-    <col min="14" max="14" width="14.8660714285714" customWidth="1"/>
-    <col min="15" max="15" width="11.9017857142857" customWidth="1"/>
-    <col min="16" max="16" width="17.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="19.2678571428571" customWidth="1"/>
-    <col min="18" max="18" width="17.4642857142857" customWidth="1"/>
-    <col min="19" max="19" width="22.3214285714286" customWidth="1"/>
-    <col min="20" max="20" width="20.0892857142857" customWidth="1"/>
-    <col min="21" max="21" width="20.9821428571429" customWidth="1"/>
-    <col min="22" max="22" width="17.4107142857143" customWidth="1"/>
-    <col min="23" max="23" width="20.6875" customWidth="1"/>
-    <col min="24" max="24" width="15.5982142857143" customWidth="1"/>
-    <col min="25" max="25" width="21.6607142857143" customWidth="1"/>
-    <col min="26" max="26" width="21.1964285714286" customWidth="1"/>
-    <col min="27" max="27" width="16.3303571428571" customWidth="1"/>
-    <col min="28" max="29" width="13.1964285714286" customWidth="1"/>
-    <col min="30" max="30" width="16.0714285714286" customWidth="1"/>
-    <col min="31" max="31" width="18.1517857142857" customWidth="1"/>
-    <col min="32" max="32" width="20.2321428571429" customWidth="1"/>
-    <col min="33" max="33" width="18.3035714285714" customWidth="1"/>
-    <col min="34" max="34" width="17.8571428571429" customWidth="1"/>
-    <col min="35" max="35" width="15.1964285714286" customWidth="1"/>
-    <col min="36" max="36" width="18.7946428571429" customWidth="1"/>
-    <col min="37" max="37" width="19.3392857142857" customWidth="1"/>
-    <col min="38" max="38" width="14.5803571428571" customWidth="1"/>
-    <col min="39" max="40" width="14.9285714285714" customWidth="1"/>
+    <col min="14" max="14" width="14.86328125" customWidth="1"/>
+    <col min="15" max="15" width="11.86328125" customWidth="1"/>
+    <col min="16" max="16" width="17.86328125" customWidth="1"/>
+    <col min="17" max="17" width="19.265625" customWidth="1"/>
+    <col min="18" max="18" width="17.46484375" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.06640625" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="17.3984375" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.59765625" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" customWidth="1"/>
+    <col min="26" max="26" width="21.19921875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.19921875" customWidth="1"/>
+    <col min="30" max="30" width="16.06640625" customWidth="1"/>
+    <col min="31" max="31" width="18.1328125" customWidth="1"/>
+    <col min="32" max="32" width="20.19921875" customWidth="1"/>
+    <col min="33" max="33" width="18.265625" customWidth="1"/>
+    <col min="34" max="34" width="17.86328125" customWidth="1"/>
+    <col min="35" max="35" width="15.19921875" customWidth="1"/>
+    <col min="36" max="36" width="18.796875" customWidth="1"/>
+    <col min="37" max="37" width="19.33203125" customWidth="1"/>
+    <col min="38" max="38" width="14.59765625" customWidth="1"/>
+    <col min="39" max="40" width="14.9296875" customWidth="1"/>
     <col min="41" max="41" width="14" customWidth="1"/>
-    <col min="42" max="42" width="14.2678571428571" customWidth="1"/>
-    <col min="43" max="43" width="24.3928571428571" customWidth="1"/>
-    <col min="44" max="44" width="18.6071428571429" customWidth="1"/>
-    <col min="45" max="45" width="18.5982142857143" customWidth="1"/>
-    <col min="46" max="46" width="14.1339285714286" customWidth="1"/>
-    <col min="47" max="47" width="19.1339285714286" customWidth="1"/>
-    <col min="48" max="48" width="21.2767857142857" customWidth="1"/>
-    <col min="49" max="49" width="26.1964285714286" customWidth="1"/>
-    <col min="50" max="50" width="19.7946428571429" customWidth="1"/>
-    <col min="51" max="51" width="16.9285714285714" customWidth="1"/>
+    <col min="42" max="42" width="14.265625" customWidth="1"/>
+    <col min="43" max="43" width="24.3984375" customWidth="1"/>
+    <col min="44" max="45" width="18.59765625" customWidth="1"/>
+    <col min="46" max="46" width="14.1328125" customWidth="1"/>
+    <col min="47" max="47" width="19.1328125" customWidth="1"/>
+    <col min="48" max="48" width="21.265625" customWidth="1"/>
+    <col min="49" max="49" width="26.19921875" customWidth="1"/>
+    <col min="50" max="50" width="19.796875" customWidth="1"/>
+    <col min="51" max="51" width="16.9296875" customWidth="1"/>
     <col min="52" max="52" width="16" customWidth="1"/>
-    <col min="53" max="53" width="17.6607142857143" customWidth="1"/>
-    <col min="54" max="54" width="17.4642857142857" customWidth="1"/>
-    <col min="55" max="55" width="17.8482142857143" customWidth="1"/>
-    <col min="56" max="56" width="19.1964285714286" customWidth="1"/>
-    <col min="57" max="57" width="19.6607142857143" style="2" customWidth="1"/>
-    <col min="58" max="58" width="18.1964285714286" style="2" customWidth="1"/>
+    <col min="53" max="53" width="17.6640625" customWidth="1"/>
+    <col min="54" max="54" width="17.46484375" customWidth="1"/>
+    <col min="55" max="55" width="17.86328125" customWidth="1"/>
+    <col min="56" max="56" width="19.19921875" customWidth="1"/>
+    <col min="57" max="57" width="19.6640625" style="2" customWidth="1"/>
+    <col min="58" max="58" width="18.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:58">
+    <row r="1" spans="1:58">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:58">
+    <row r="2" spans="1:58">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -2122,7 +1498,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:58">
+    <row r="3" spans="1:58">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
@@ -2298,7 +1674,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" ht="49.9" customHeight="1" spans="1:58">
+    <row r="4" spans="1:58" ht="49.9" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -2384,7 +1760,7 @@
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
     </row>
-    <row r="5" ht="30" spans="1:58">
+    <row r="5" spans="1:58">
       <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
@@ -2560,7 +1936,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="237" spans="1:58">
+    <row r="6" spans="1:58" s="1" customFormat="1" ht="228">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -2628,7 +2004,7 @@
         <v>167</v>
       </c>
       <c r="W6" s="4">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>65</v>
@@ -2736,7 +2112,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:58">
+    <row r="7" spans="1:58" ht="28.5">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -2856,7 +2232,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:58">
+    <row r="8" spans="1:58" ht="28.5">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
@@ -2974,7 +2350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:58">
+    <row r="9" spans="1:58">
       <c r="A9" s="1" t="s">
         <v>204</v>
       </c>
@@ -3056,7 +2432,7 @@
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" ht="15" spans="1:58">
+    <row r="10" spans="1:58">
       <c r="A10" s="1" t="s">
         <v>209</v>
       </c>
@@ -3138,7 +2514,7 @@
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
     </row>
-    <row r="11" ht="30" spans="1:58">
+    <row r="11" spans="1:58">
       <c r="A11" s="1" t="s">
         <v>216</v>
       </c>
@@ -3210,7 +2586,7 @@
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" ht="15" spans="1:58">
+    <row r="12" spans="1:58">
       <c r="A12" s="1" t="s">
         <v>217</v>
       </c>
@@ -3282,7 +2658,7 @@
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" ht="30" spans="1:58">
+    <row r="13" spans="1:58">
       <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
@@ -3344,7 +2720,7 @@
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
-    <row r="14" ht="15" spans="1:58">
+    <row r="14" spans="1:58">
       <c r="A14" s="1" t="s">
         <v>224</v>
       </c>
@@ -3406,7 +2782,7 @@
       <c r="BE14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
-    <row r="15" ht="30" spans="1:58">
+    <row r="15" spans="1:58">
       <c r="A15" s="1" t="s">
         <v>225</v>
       </c>
@@ -3468,7 +2844,7 @@
       <c r="BE15" s="3"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" ht="15" spans="1:58">
+    <row r="16" spans="1:58">
       <c r="A16" s="1" t="s">
         <v>226</v>
       </c>
@@ -3530,7 +2906,7 @@
       <c r="BE16" s="3"/>
       <c r="BF16" s="3"/>
     </row>
-    <row r="17" ht="30" spans="1:58">
+    <row r="17" spans="1:58">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -3592,7 +2968,7 @@
       <c r="BE17" s="3"/>
       <c r="BF17" s="3"/>
     </row>
-    <row r="18" ht="15" spans="1:58">
+    <row r="18" spans="1:58">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
@@ -3654,7 +3030,7 @@
       <c r="BE18" s="3"/>
       <c r="BF18" s="3"/>
     </row>
-    <row r="19" ht="30" spans="1:58">
+    <row r="19" spans="1:58">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -3716,7 +3092,7 @@
       <c r="BE19" s="3"/>
       <c r="BF19" s="3"/>
     </row>
-    <row r="20" ht="15" spans="1:58">
+    <row r="20" spans="1:58">
       <c r="A20" s="1" t="s">
         <v>230</v>
       </c>
@@ -3779,25 +3155,23 @@
       <c r="BF20" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.4017857142857" customWidth="1"/>
-    <col min="2" max="2" width="30.0625" customWidth="1"/>
-    <col min="3" max="3" width="57.7321428571429" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="30.06640625" customWidth="1"/>
+    <col min="3" max="3" width="57.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4450,7 +3824,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>